--- a/data/trans_camb/IP1001-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1001-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,62</t>
+          <t>0,0; 18,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,17</t>
+          <t>-7,1; 18,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 4,24</t>
+          <t>-7,12; 14,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,77</t>
+          <t>-19,31; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,26</t>
+          <t>-3,39; 8,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 2,9</t>
+          <t>-3,41; 6,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,99</t>
+          <t>-3,44; 5,48</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>57,87%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-38,67%</t>
+          <t>108,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>58,83%</t>
+          <t>28,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,28%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-16,02%</t>
+          <t>106,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,44%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>4,24%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-61,0; 188,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,39; 182,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 288,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-83,08; 107,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,28; 305,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,58; 223,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-59,38; 72,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 173,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 149,73</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>0,9</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 2,94</t>
+          <t>-2,48; 2,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 1,47</t>
+          <t>-2,35; 2,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 1,43</t>
+          <t>-1,07; 4,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 0,41</t>
+          <t>-3,21; 1,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 0,6</t>
+          <t>-1,4; 4,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 0,68</t>
+          <t>-2,62; 2,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 0,87</t>
+          <t>-2,1; 1,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 0,22</t>
+          <t>-0,9; 2,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 0,3</t>
+          <t>-1,06; 2,99</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,17%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-33,23%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-37,75%</t>
+          <t>57,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-57,95%</t>
+          <t>-38,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-56,89%</t>
+          <t>58,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-50,7%</t>
+          <t>-2,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-28,94%</t>
+          <t>-16,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-43,58%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-43,24%</t>
+          <t>33,83%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,51; 119,23</t>
+          <t>-61,0; 188,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-76,0; 63,6</t>
+          <t>-60,39; 182,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,64; 66,0</t>
+          <t>-31,66; 288,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-90,86; 52,19</t>
+          <t>-83,08; 107,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-89,67; 64,57</t>
+          <t>-39,28; 305,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-89,84; 85,3</t>
+          <t>-74,58; 223,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,47; 34,47</t>
+          <t>-59,38; 72,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-72,01; 10,64</t>
+          <t>-26,48; 173,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-74,99; 18,15</t>
+          <t>-34,06; 149,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>-3,47</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-3,76</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,91</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,76</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,05</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>3,85</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-3,55</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,76; 1,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 2,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,64</t>
+          <t>-0,92; 6,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 18,04</t>
+          <t>-6,73; -0,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 14,67</t>
+          <t>-7,43; -1,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 0,0</t>
+          <t>-5,47; 1,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 8,97</t>
+          <t>-3,76; -0,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 6,78</t>
+          <t>-3,61; 0,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 5,48</t>
+          <t>-2,31; 2,75</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,04%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>108,63%</t>
+          <t>-75,39%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>-81,61%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-43,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>106,87%</t>
+          <t>-59,3%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>-54,83%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>0,09%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,17; 235,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,96; 276,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,87; 702,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,79; 2,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -8,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,34; 52,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,2; 6,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,93; 21,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,42; 131,42</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,67</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 1,45</t>
+          <t>-3,43; 2,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,35</t>
+          <t>-4,49; 1,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 6,76</t>
+          <t>-4,79; 1,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,73; -0,86</t>
+          <t>-4,74; 0,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,43; -1,34</t>
+          <t>-4,52; 0,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 1,03</t>
+          <t>-4,49; 0,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,76; -0,11</t>
+          <t>-3,15; 0,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 0,15</t>
+          <t>-3,61; 0,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,75</t>
+          <t>-3,86; 0,3</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-24,04%</t>
+          <t>-6,17%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>-33,23%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>-37,75%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-75,39%</t>
+          <t>-57,95%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-81,61%</t>
+          <t>-56,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-43,4%</t>
+          <t>-50,7%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-59,3%</t>
+          <t>-28,94%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-54,83%</t>
+          <t>-43,58%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>-43,24%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-87,17; 235,77</t>
+          <t>-57,51; 119,23</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-82,96; 276,35</t>
+          <t>-76,0; 63,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-59,87; 702,82</t>
+          <t>-81,64; 66,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-94,79; 2,0</t>
+          <t>-90,86; 52,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -8,57</t>
+          <t>-89,67; 64,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-83,34; 52,88</t>
+          <t>-89,84; 85,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-85,2; 6,61</t>
+          <t>-63,47; 34,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-83,93; 21,01</t>
+          <t>-72,01; 10,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-55,42; 131,42</t>
+          <t>-74,99; 18,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1001-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1001-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 18,04</t>
+          <t>-7,24; 16,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 14,67</t>
+          <t>-7,16; 16,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 0,0</t>
+          <t>-14,96; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 8,97</t>
+          <t>-3,33; 8,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 6,78</t>
+          <t>-3,41; 7,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 5,48</t>
+          <t>-3,35; 5,47</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 3,77</t>
+          <t>-1,2; 3,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 4,37</t>
+          <t>-0,93; 4,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,7</t>
+          <t>-1,69; 2,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 5,87</t>
+          <t>-0,62; 6,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 3,63</t>
+          <t>-1,85; 3,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 4,6</t>
+          <t>-1,23; 4,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 4,13</t>
+          <t>-0,34; 3,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 3,05</t>
+          <t>-0,62; 3,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,77</t>
+          <t>-1,1; 2,6</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,65; 1043,34</t>
+          <t>-43,44; 964,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,15; 713,82</t>
+          <t>-60,25; 801,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-70,09; 722,75</t>
+          <t>-67,6; 558,94</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,72</t>
+          <t>-2,32; 2,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,77</t>
+          <t>-2,33; 2,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,62</t>
+          <t>-1,34; 4,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,17</t>
+          <t>-3,15; 1,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 4,24</t>
+          <t>-1,13; 4,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,77</t>
+          <t>-2,54; 3,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,26</t>
+          <t>-2,17; 1,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 2,9</t>
+          <t>-1,04; 2,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,99</t>
+          <t>-1,09; 2,95</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,0; 188,79</t>
+          <t>-60,38; 175,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,39; 182,73</t>
+          <t>-55,59; 181,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 288,67</t>
+          <t>-39,39; 255,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-83,08; 107,39</t>
+          <t>-81,3; 94,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,28; 305,31</t>
+          <t>-41,92; 343,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,58; 223,89</t>
+          <t>-74,9; 246,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,38; 72,27</t>
+          <t>-60,68; 79,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 173,64</t>
+          <t>-30,08; 154,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 149,73</t>
+          <t>-32,57; 157,77</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 1,45</t>
+          <t>-2,78; 1,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,35</t>
+          <t>-2,52; 2,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 6,76</t>
+          <t>-1,15; 6,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,73; -0,86</t>
+          <t>-6,72; -0,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,43; -1,34</t>
+          <t>-6,84; -1,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 1,03</t>
+          <t>-5,28; 1,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,76; -0,11</t>
+          <t>-3,72; -0,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 0,15</t>
+          <t>-3,59; 0,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,75</t>
+          <t>-2,33; 3,06</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-87,17; 235,77</t>
+          <t>-85,8; 254,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-82,96; 276,35</t>
+          <t>-79,41; 373,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-59,87; 702,82</t>
+          <t>-58,67; 973,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-94,79; 2,0</t>
+          <t>-95,62; -11,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -8,57</t>
+          <t>-100,0; -14,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-83,34; 52,88</t>
+          <t>-83,36; 74,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-85,2; 6,61</t>
+          <t>-83,9; 6,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-83,93; 21,01</t>
+          <t>-83,68; 23,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-55,42; 131,42</t>
+          <t>-57,95; 144,26</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 2,94</t>
+          <t>-3,44; 3,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 1,47</t>
+          <t>-4,62; 1,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 1,43</t>
+          <t>-4,75; 1,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 0,41</t>
+          <t>-4,72; 0,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 0,6</t>
+          <t>-4,75; 0,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 0,68</t>
+          <t>-4,56; 1,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 0,87</t>
+          <t>-3,12; 0,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 0,22</t>
+          <t>-3,75; 0,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 0,3</t>
+          <t>-3,98; 0,22</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-57,51; 119,23</t>
+          <t>-57,5; 135,31</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-76,0; 63,6</t>
+          <t>-75,63; 66,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-81,64; 66,0</t>
+          <t>-82,13; 70,23</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-90,86; 52,19</t>
+          <t>-90,38; 71,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-89,67; 64,57</t>
+          <t>-91,07; 41,83</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-89,84; 85,3</t>
+          <t>-90,64; 88,84</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-63,47; 34,47</t>
+          <t>-64,0; 32,62</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-72,01; 10,64</t>
+          <t>-74,89; 6,48</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-74,99; 18,15</t>
+          <t>-76,54; 13,01</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,36</t>
+          <t>-1,45; 1,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,29</t>
+          <t>-1,57; 1,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,41</t>
+          <t>-0,74; 2,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 0,22</t>
+          <t>-2,45; 0,21</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,61</t>
+          <t>-2,25; 0,68</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,73</t>
+          <t>-2,33; 0,7</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,53</t>
+          <t>-1,44; 0,41</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,59</t>
+          <t>-1,44; 0,56</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,1</t>
+          <t>-1,03; 1,17</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 67,42</t>
+          <t>-43,22; 68,84</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-44,02; 64,61</t>
+          <t>-42,44; 57,58</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 114,38</t>
+          <t>-23,51; 127,97</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-66,07; 12,02</t>
+          <t>-64,62; 14,22</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-58,05; 29,17</t>
+          <t>-59,47; 30,51</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-61,37; 34,41</t>
+          <t>-63,38; 29,28</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-44,99; 20,53</t>
+          <t>-43,12; 19,75</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-43,15; 26,0</t>
+          <t>-42,59; 22,54</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 50,4</t>
+          <t>-31,83; 48,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1001-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1001-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -695,37 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,64</t>
+          <t>0,0; 18,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 16,07</t>
+          <t>-7,16; 16,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 16,77</t>
+          <t>-7,21; 14,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 0,0</t>
+          <t>-16,92; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 8,0</t>
+          <t>-3,33; 8,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 7,04</t>
+          <t>-3,42; 6,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 5,47</t>
+          <t>-3,47; 5,31</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,66</t>
+          <t>-1,56; 3,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,41</t>
+          <t>-0,97; 4,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 2,81</t>
+          <t>-1,76; 2,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 6,28</t>
+          <t>-0,9; 6,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 3,75</t>
+          <t>-1,86; 3,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,6</t>
+          <t>-1,63; 4,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,72</t>
+          <t>-0,39; 3,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,24</t>
+          <t>-0,71; 3,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,6</t>
+          <t>-0,92; 2,64</t>
         </is>
       </c>
     </row>
@@ -1037,24 +1037,24 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,44; 964,68</t>
+          <t>-41,18; 817,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,25; 801,61</t>
+          <t>-55,92; 711,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-67,6; 558,94</t>
+          <t>-68,61; 609,39</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,71</t>
+          <t>-2,42; 2,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,71</t>
+          <t>-2,1; 2,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,7</t>
+          <t>-0,94; 4,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 1,13</t>
+          <t>-3,18; 1,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 4,52</t>
+          <t>-1,35; 4,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,18</t>
+          <t>-2,28; 2,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 1,22</t>
+          <t>-2,12; 1,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,71</t>
+          <t>-0,93; 2,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,95</t>
+          <t>-0,91; 3,16</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,38; 175,84</t>
+          <t>-61,02; 159,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,59; 181,33</t>
+          <t>-56,1; 170,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,39; 255,13</t>
+          <t>-32,09; 326,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-81,3; 94,43</t>
+          <t>-87,12; 86,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,92; 343,73</t>
+          <t>-40,63; 312,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,9; 246,65</t>
+          <t>-71,78; 278,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-60,68; 79,55</t>
+          <t>-60,54; 71,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,08; 154,27</t>
+          <t>-27,56; 156,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,57; 157,77</t>
+          <t>-30,21; 175,66</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 1,49</t>
+          <t>-3,01; 1,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 2,27</t>
+          <t>-2,19; 2,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 6,64</t>
+          <t>-1,34; 6,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,72; -0,74</t>
+          <t>-6,76; -0,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,84; -1,11</t>
+          <t>-7,35; -1,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 1,48</t>
+          <t>-5,39; 1,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; -0,19</t>
+          <t>-3,86; -0,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 0,24</t>
+          <t>-3,8; 0,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 3,06</t>
+          <t>-2,52; 2,66</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-85,8; 254,49</t>
+          <t>-92,09; 247,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,41; 373,0</t>
+          <t>-78,9; 400,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,67; 973,22</t>
+          <t>-60,73; 851,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-95,62; -11,29</t>
+          <t>-94,42; 4,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -14,84</t>
+          <t>-100,0; 0,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-83,36; 74,55</t>
+          <t>-82,26; 91,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-83,9; 6,24</t>
+          <t>-85,1; -2,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-83,68; 23,1</t>
+          <t>-85,7; 17,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-57,95; 144,26</t>
+          <t>-60,09; 115,91</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 3,43</t>
+          <t>-3,44; 2,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 1,56</t>
+          <t>-4,76; 1,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 1,44</t>
+          <t>-4,84; 1,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 0,51</t>
+          <t>-4,91; 0,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 0,24</t>
+          <t>-4,65; 0,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 1,2</t>
+          <t>-4,46; 0,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 0,81</t>
+          <t>-3,31; 0,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 0,14</t>
+          <t>-3,72; 0,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 0,22</t>
+          <t>-3,8; 0,31</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-57,5; 135,31</t>
+          <t>-60,45; 109,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-75,63; 66,95</t>
+          <t>-73,73; 70,8</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-82,13; 70,23</t>
+          <t>-83,41; 54,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-90,38; 71,06</t>
+          <t>-90,42; 36,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-91,07; 41,83</t>
+          <t>-91,2; 44,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-90,64; 88,84</t>
+          <t>-90,43; 71,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-64,0; 32,62</t>
+          <t>-65,61; 37,33</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-74,89; 6,48</t>
+          <t>-72,99; 21,31</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-76,54; 13,01</t>
+          <t>-76,01; 17,09</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,28</t>
+          <t>-1,27; 1,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,14</t>
+          <t>-1,35; 1,23</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,55</t>
+          <t>-0,74; 2,34</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,21</t>
+          <t>-2,37; 0,35</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,68</t>
+          <t>-2,19; 0,76</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,7</t>
+          <t>-2,23; 0,53</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,41</t>
+          <t>-1,58; 0,42</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,56</t>
+          <t>-1,42; 0,52</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,17</t>
+          <t>-1,01; 1,13</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-43,22; 68,84</t>
+          <t>-38,59; 65,75</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-42,44; 57,58</t>
+          <t>-41,82; 61,49</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 127,97</t>
+          <t>-25,18; 105,35</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-64,62; 14,22</t>
+          <t>-63,6; 18,52</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-59,47; 30,51</t>
+          <t>-57,77; 36,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-63,38; 29,28</t>
+          <t>-61,08; 23,42</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-43,12; 19,75</t>
+          <t>-46,99; 17,73</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-42,59; 22,54</t>
+          <t>-40,92; 23,15</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-31,83; 48,27</t>
+          <t>-31,56; 45,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1001-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1001-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,55</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 6,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 4,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,89</t>
+          <t>-2,09; 3,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 16,21</t>
+          <t>-0,96; 3,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 14,17</t>
+          <t>-0,73; 4,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 0,0</t>
+          <t>-1,23; 2,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 8,56</t>
+          <t>-0,07; 3,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 6,75</t>
+          <t>-0,63; 2,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 5,31</t>
+          <t>-1,11; 2,22</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>153,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>108,63%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>121,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>80,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>106,87%</t>
+          <t>130,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>74,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>44,46%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-59,03; 1039,68</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,36; 725,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,4; 567,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,46; 455,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,95</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,75</t>
+          <t>-3,21; 1,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 4,9</t>
+          <t>-1,4; 4,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,79</t>
+          <t>-2,63; 2,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 6,12</t>
+          <t>-2,48; 2,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,43</t>
+          <t>-2,35; 2,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 4,24</t>
+          <t>-0,98; 4,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 3,75</t>
+          <t>-2,1; 1,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,05</t>
+          <t>-0,9; 2,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,64</t>
+          <t>-1,04; 3,0</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>-38,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>123,45%</t>
+          <t>58,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41,54%</t>
+          <t>-4,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>178,27%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>52,9%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>78,2%</t>
+          <t>61,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>136,74%</t>
+          <t>-16,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>87,69%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>60,09%</t>
+          <t>35,44%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,08; 107,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,28; 305,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,32; 215,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,0; 188,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,39; 182,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,16; 302,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,18; 817,19</t>
+          <t>-59,38; 72,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,92; 711,85</t>
+          <t>-26,48; 173,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-68,61; 609,39</t>
+          <t>-33,16; 150,08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-3,47</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-3,76</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,34</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>0,08</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,62</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,98</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,33</t>
+          <t>-6,73; -0,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 2,83</t>
+          <t>-7,43; -1,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,75</t>
+          <t>-5,77; 0,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 1,16</t>
+          <t>-2,76; 1,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 4,12</t>
+          <t>-2,15; 2,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,97</t>
+          <t>-0,67; 11,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 1,26</t>
+          <t>-3,76; -0,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 2,78</t>
+          <t>-3,61; 0,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,16</t>
+          <t>-2,06; 3,54</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>-75,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>-81,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>57,87%</t>
+          <t>-50,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-38,67%</t>
+          <t>-24,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>58,83%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-2,28%</t>
+          <t>134,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-16,02%</t>
+          <t>-59,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>32,44%</t>
+          <t>-54,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>5,42%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,02; 159,22</t>
+          <t>-94,79; 2,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,1; 170,77</t>
+          <t>-100,0; -8,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 326,25</t>
+          <t>-86,44; 34,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-87,12; 86,59</t>
+          <t>-87,17; 235,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,63; 312,35</t>
+          <t>-82,96; 276,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,78; 278,4</t>
+          <t>-48,09; 957,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-60,54; 71,82</t>
+          <t>-85,2; 6,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,56; 156,61</t>
+          <t>-83,93; 21,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,21; 175,66</t>
+          <t>-55,43; 175,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,62</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,6</t>
+          <t>-4,74; 0,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,88</t>
+          <t>-4,52; 0,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 6,54</t>
+          <t>-4,45; 0,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,76; -0,78</t>
+          <t>-3,43; 2,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,35; -1,18</t>
+          <t>-4,49; 1,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 1,74</t>
+          <t>-4,83; 1,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,86; -0,25</t>
+          <t>-3,15; 0,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,14</t>
+          <t>-3,61; 0,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 2,66</t>
+          <t>-3,84; 0,41</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-24,04%</t>
+          <t>-57,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>-56,89%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>-48,52%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-75,39%</t>
+          <t>-6,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-81,61%</t>
+          <t>-33,23%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-43,4%</t>
+          <t>-37,75%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-59,3%</t>
+          <t>-28,94%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-54,83%</t>
+          <t>-43,58%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>-41,92%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-92,09; 247,9</t>
+          <t>-90,86; 52,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-78,9; 400,35</t>
+          <t>-89,67; 64,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-60,73; 851,92</t>
+          <t>-89,55; 92,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-94,42; 4,77</t>
+          <t>-57,51; 119,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,32</t>
+          <t>-76,0; 63,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-82,26; 91,62</t>
+          <t>-80,73; 68,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-85,1; -2,65</t>
+          <t>-63,47; 34,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-85,7; 17,02</t>
+          <t>-72,01; 10,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-60,09; 115,91</t>
+          <t>-73,89; 20,65</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,88</t>
+          <t>-2,49; 0,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 1,54</t>
+          <t>-2,14; 0,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 1,22</t>
+          <t>-2,39; 0,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 0,32</t>
+          <t>-1,37; 1,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 0,42</t>
+          <t>-1,42; 1,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 0,87</t>
+          <t>-0,64; 2,85</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 0,98</t>
+          <t>-1,51; 0,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,25</t>
+          <t>-1,46; 0,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,31</t>
+          <t>-0,98; 1,32</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-6,17%</t>
+          <t>-36,91%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-33,23%</t>
+          <t>-25,79%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-37,75%</t>
+          <t>-29,74%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-57,95%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-56,89%</t>
+          <t>-3,09%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-50,7%</t>
+          <t>33,63%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-28,94%</t>
+          <t>-18,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-43,58%</t>
+          <t>-14,81%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-43,24%</t>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-60,45; 109,67</t>
+          <t>-66,07; 12,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-73,73; 70,8</t>
+          <t>-58,05; 29,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-83,41; 54,21</t>
+          <t>-62,58; 33,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-90,42; 36,41</t>
+          <t>-40,66; 67,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-91,2; 44,79</t>
+          <t>-44,02; 64,61</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-90,43; 71,86</t>
+          <t>-20,14; 135,14</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-65,61; 37,33</t>
+          <t>-44,99; 20,53</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-72,99; 21,31</t>
+          <t>-43,15; 26,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-76,01; 17,09</t>
+          <t>-29,12; 56,22</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,78</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 1,38</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 1,23</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 2,34</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 0,35</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 0,76</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-2,23; 0,53</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-1,58; 0,42</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 0,52</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 1,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-3,09%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>27,54%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-36,91%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-25,79%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-27,65%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-18,95%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-14,81%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-0,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-38,59; 65,75</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-41,82; 61,49</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-25,18; 105,35</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-63,6; 18,52</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-57,77; 36,12</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-61,08; 23,42</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-46,99; 17,73</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-40,92; 23,15</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-31,56; 45,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
